--- a/黑马头条项目/自动化测试用例/黑码头条自动化测试用例.xlsx
+++ b/黑马头条项目/自动化测试用例/黑码头条自动化测试用例.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\软件测试\黑马头条项目\自动化测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\软件测试\综合项目-黑马头条\自动化测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89AA2CA-8EEB-4605-841F-217E16D3E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911CAC0D-F2A8-44D5-965B-A329CDDA4EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="1620" windowWidth="23040" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="1284" windowWidth="24936" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="自媒体登录、发布自动化测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="自媒体登录、发布测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="后台管理登录、审核测试用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +37,6 @@
   </si>
   <si>
     <t>预置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,22 +102,6 @@
   <si>
     <t>1、用户成功登录
 2、进入后台管理页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击"发布文章"菜单
-2、输入标题
-3、输入内容
-4、选择封面
-5、选择频道
-6、点击发表按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、标题：text-20250918-001
-2、内容：xxx
-3、封面：自动
-4、频道：数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,6 +117,65 @@
     <t>1、输入用户名
 2、输入密码
 3、点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户名：demo
+2、密码：623itheima.CN032@.当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录成功，跳转到后台管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击内容审核
+2、搜索文章名称
+3、选择审核状态
+4、点击查看按钮
+5、点击通过按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提示：操作成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、文章名称：text-20251014-001
+2、审核状态：待人工审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击"发布文章"
+2、输入标题
+3、输入内容
+4、输入标签
+5、选择频道
+6、选择时间
+7、选择自动封面
+8、点击提交审核
+6、点击发表按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、标题：text-20251014-001
+2、内容：xxx
+3、标签：水文
+4、频道：大数据
+5、时间：此刻
+6、封面：自动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +183,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +221,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -225,19 +275,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,118 +583,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:J3 A2:E2 H2:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:E3 A2:E2 H2:J2 H3:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3302E3-5B0B-4F18-8697-7D75B203F1E2}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>